--- a/biology/Biologie cellulaire et moléculaire/CCL23/CCL23.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/CCL23/CCL23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CCL23 (pour « Chemokine (C-C motif) ligand 23 »), appelé aussi  β8‐1 (Ckβ8‐1),  MPIF‐1 pour « myeloid progenitor inhibitory factor 1 »  ou MIP‐3 pour « macrophage inflammatory protein 3 »,  est une chimiokine. Son gène est CCL23 situé sur le chromosome 17 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se lie au CCR1[5] et permet l'attraction des polynucléaires neutrophiles, des monocytes et des lymphocytes[6]. Il inhibe la prolifération de certaines cellules souches hématopoïétique[7].
-Il jouerait un rôle dans la genèse de l'athérome[8] et dans l'angiogenèse par l'intermédiaire d'une augmentation de l'expression de la métalloprotéinase matricielle 2[9] et de la voie du KDR/Flk-1[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se lie au CCR1 et permet l'attraction des polynucléaires neutrophiles, des monocytes et des lymphocytes. Il inhibe la prolifération de certaines cellules souches hématopoïétique.
+Il jouerait un rôle dans la genèse de l'athérome et dans l'angiogenèse par l'intermédiaire d'une augmentation de l'expression de la métalloprotéinase matricielle 2 et de la voie du KDR/Flk-1.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son taux sanguin est augmenté dans la polyarthrite rhumatoïde[11], dans la sclérodermie[12] ainsi que lors d'un accident vasculaire cérébral[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son taux sanguin est augmenté dans la polyarthrite rhumatoïde, dans la sclérodermie ainsi que lors d'un accident vasculaire cérébral.
 </t>
         </is>
       </c>
